--- a/RegressionTests/NeuralNetClassifier_Unit_Test_15/expected_aptrans_anon.SAA_Pension_Remit_-_07.20_SPPP__601013_.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_15/expected_aptrans_anon.SAA_Pension_Remit_-_07.20_SPPP__601013_.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="180">
   <si>
     <t>SPPP.</t>
   </si>
@@ -167,6 +167,9 @@
     <t>ISSUES FOUND</t>
   </si>
   <si>
+    <t>PAYROLL</t>
+  </si>
+  <si>
     <t>FORENAME</t>
   </si>
   <si>
@@ -180,9 +183,14 @@
   </si>
   <si>
     <t>PPS number 9514493B does not exist for Scheme ID 601013
+Forename [Ballyfermot] does not match Payroll member's (refno=0627905) forename [ORLA] or its initial
+Surname [Duagh] does not match Payroll member's (refno=0627905) surname  [NORRIS]  (forename ORLA)
 Member does not have open Paypoints</t>
   </si>
   <si>
+    <t>3763</t>
+  </si>
+  <si>
     <t>Ballyfermot</t>
   </si>
   <si>
@@ -190,9 +198,13 @@
   </si>
   <si>
     <t>PPS number 5706494M does not exist for Scheme ID 601013
+Surname [Donaghmede] does not match Payroll member's (refno=0605357) surname  [ULUDAG]  (forename DONAL)
 Member does not have open Paypoints</t>
   </si>
   <si>
+    <t>4263</t>
+  </si>
+  <si>
     <t>Durrus</t>
   </si>
   <si>
@@ -200,9 +212,13 @@
   </si>
   <si>
     <t>PPS number 2005148P does not exist for Scheme ID 601013
+Member (Payroll=79063) status is PP so name is not validated
 Member does not have open Paypoints</t>
   </si>
   <si>
+    <t>79063</t>
+  </si>
+  <si>
     <t>Clonakilty</t>
   </si>
   <si>
@@ -210,9 +226,13 @@
   </si>
   <si>
     <t>PPS number 8256689R does not exist for Scheme ID 601013
+Member (Payroll=79357) status is PP so name is not validated
 Member does not have open Paypoints</t>
   </si>
   <si>
+    <t>79357</t>
+  </si>
+  <si>
     <t>Enniscrone</t>
   </si>
   <si>
@@ -220,9 +240,14 @@
   </si>
   <si>
     <t>PPS number 9364472F does not exist for Scheme ID 601013
+Forename [Lisselton] does not match Payroll member's (refno=0007388) forename [PHILIP] or its initial
+Surname [Minane] does not match Payroll member's (refno=0007388) surname  [BARRET]  (forename PHILIP)
 Member does not have open Paypoints</t>
   </si>
   <si>
+    <t>79458</t>
+  </si>
+  <si>
     <t>Lisselton</t>
   </si>
   <si>
@@ -230,9 +255,14 @@
   </si>
   <si>
     <t>PPS number 3351446Y does not exist for Scheme ID 601013
+Forename [Clontarf] does not match Payroll member's (refno=0648581) forename [ERIC] or its initial
+Surname [O'Callaghans] does not match Payroll member's (refno=0648581) surname  [BRDAR]  (forename ERIC)
 Member does not have open Paypoints</t>
   </si>
   <si>
+    <t>79574</t>
+  </si>
+  <si>
     <t>Clontarf</t>
   </si>
   <si>
@@ -240,9 +270,14 @@
   </si>
   <si>
     <t>PPS number 8751354J does not exist for Scheme ID 601013
+Forename [Barna] does not match Payroll member's (refno=0627885) forename [JOHN] or its initial
+Surname [Cavan] does not match Payroll member's (refno=0627885) surname  [QUINN]  (forename JOHN)
 Member does not have open Paypoints</t>
   </si>
   <si>
+    <t>80020</t>
+  </si>
+  <si>
     <t>Barna</t>
   </si>
   <si>
@@ -250,9 +285,14 @@
   </si>
   <si>
     <t>PPS number 8428714T does not exist for Scheme ID 601013
+Forename [Bannow] does not match Payroll member's (refno=3116689) forename [MARK] or its initial
+Surname [O'Coonagh] does not match Payroll member's (refno=3116689) surname  [GIBLIN]  (forename MARK)
 Member does not have open Paypoints</t>
   </si>
   <si>
+    <t>80031</t>
+  </si>
+  <si>
     <t>Bannow</t>
   </si>
   <si>
@@ -260,9 +300,14 @@
   </si>
   <si>
     <t>PPS number 3937317D does not exist for Scheme ID 601013
+Forename [Oranmore] does not match Payroll member's (refno=0607231) forename [GEAROID] or its initial
+Surname [O'Kerrykeel] does not match Payroll member's (refno=0607231) surname  [NORRIS]  (forename GEAROID)
 Member does not have open Paypoints</t>
   </si>
   <si>
+    <t>80071</t>
+  </si>
+  <si>
     <t>Oranmore</t>
   </si>
   <si>
@@ -270,9 +315,14 @@
   </si>
   <si>
     <t>PPS number 4349587J does not exist for Scheme ID 601013
+Forename [Ballinadee] does not match Payroll member's (refno=0605356) forename [NICOLA] or its initial
+Surname [Gorey] does not match Payroll member's (refno=0605356) surname  [BAGGINS] or maiden name [Keane] (forename NICOLA)
 Member does not have open Paypoints</t>
   </si>
   <si>
+    <t>80092</t>
+  </si>
+  <si>
     <t>Ballinadee</t>
   </si>
   <si>
@@ -280,9 +330,13 @@
   </si>
   <si>
     <t>PPS number 2521180F does not exist for Scheme ID 601013
+Surname [Arigna] does not match Payroll member's (refno=6893165) surname  [KELLY]  (forename BARRY)
 Member does not have open Paypoints</t>
   </si>
   <si>
+    <t>80099</t>
+  </si>
+  <si>
     <t>Ballylooby</t>
   </si>
   <si>
@@ -290,9 +344,14 @@
   </si>
   <si>
     <t>PPS number 8949366R does not exist for Scheme ID 601013
+Forename [Ballyvary] does not match Payroll member's (refno=0551465) forename [SEAN] or its initial
+Surname [Newtownforbes] does not match Payroll member's (refno=0551465) surname  [HILL]  (forename SEAN)
 Member does not have open Paypoints</t>
   </si>
   <si>
+    <t>80166</t>
+  </si>
+  <si>
     <t>Ballyvary</t>
   </si>
   <si>
@@ -300,9 +359,14 @@
   </si>
   <si>
     <t>PPS number 3070228T does not exist for Scheme ID 601013
+Forename [Tulrahan] does not match Payroll member's (refno=0586802) forename [PAUL] or its initial
+Surname [Cobh] does not match Payroll member's (refno=0586802) surname  [MORAN]  (forename PAUL)
 Member does not have open Paypoints</t>
   </si>
   <si>
+    <t>80210</t>
+  </si>
+  <si>
     <t>Tulrahan</t>
   </si>
   <si>
@@ -310,9 +374,14 @@
   </si>
   <si>
     <t>PPS number 5824110P does not exist for Scheme ID 601013
+Forename [Dunkineely] does not match Payroll member's (refno=0633896) forename [KEVIN] or its initial
+Surname [McCornamona] does not match Payroll member's (refno=0633896) surname  [SNEYD]  (forename KEVIN)
 Member does not have open Paypoints</t>
   </si>
   <si>
+    <t>80213</t>
+  </si>
+  <si>
     <t>Dunkineely</t>
   </si>
   <si>
@@ -320,9 +389,13 @@
   </si>
   <si>
     <t>PPS number 3414657N does not exist for Scheme ID 601013
+Surname [O'Knockraha] does not match Payroll member's (refno=0636788) surname  [GAVIN] or maiden name [O'Brien] (forename RACHEL)
 Member does not have open Paypoints</t>
   </si>
   <si>
+    <t>80214</t>
+  </si>
+  <si>
     <t>Rahara</t>
   </si>
   <si>
@@ -330,9 +403,14 @@
   </si>
   <si>
     <t>PPS number 5901583E does not exist for Scheme ID 601013
+Forename [Killinaspick] does not match Payroll member's (refno=0568892) forename [CONOR] or its initial
+Surname [Ballinacurra] does not match Payroll member's (refno=0568892) surname  [SULLIVAN]  (forename CONOR)
 Member does not have open Paypoints</t>
   </si>
   <si>
+    <t>80215</t>
+  </si>
+  <si>
     <t>Killinaspick</t>
   </si>
   <si>
@@ -340,9 +418,14 @@
   </si>
   <si>
     <t>PPS number 1994303V does not exist for Scheme ID 601013
+Forename [Bellanagare] does not match Payroll member's (refno=0594753) forename [CONOR] or its initial
+Surname [O'Headford] does not match Payroll member's (refno=0594753) surname  [SULLIVAN]  (forename CONOR)
 Member does not have open Paypoints</t>
   </si>
   <si>
+    <t>80218</t>
+  </si>
+  <si>
     <t>Bellanagare</t>
   </si>
   <si>
@@ -350,9 +433,14 @@
   </si>
   <si>
     <t>PPS number 4192209D does not exist for Scheme ID 601013
+Forename [Bawnboy] does not match Payroll member's (refno=0611443) forename [FERGAL] or its initial
+Surname [Holycross] does not match Payroll member's (refno=0611443) surname  [OBRIEN]  (forename FERGAL)
 Member does not have open Paypoints</t>
   </si>
   <si>
+    <t>80234</t>
+  </si>
+  <si>
     <t>Bawnboy</t>
   </si>
   <si>
@@ -360,7 +448,12 @@
   </si>
   <si>
     <t>PPS number 7599313R does not exist for Scheme ID 601013
+Forename [Skehana] does not match Payroll member's (refno=0582599) forename [PHILIP] or its initial
+Surname [O'Kilcar] does not match Payroll member's (refno=0582599) surname  [BARRET]  (forename PHILIP)
 Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>80271</t>
   </si>
   <si>
     <t>Skehana</t>
@@ -585,14 +678,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -605,6 +690,14 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="20">
@@ -632,14 +725,17 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1446,7 +1542,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1454,10 +1550,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="55"/>
+    <col min="1" max="1" width="125.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -1473,327 +1569,387 @@
       <c r="E1" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30">
+      <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>430.26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="4" t="s">
-        <v>53</v>
+    <row r="3" spans="1:6" ht="45">
+      <c r="A3" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>240.3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="4" t="s">
-        <v>56</v>
+    <row r="4" spans="1:6" ht="45">
+      <c r="A4" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>196.71</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="4" t="s">
-        <v>59</v>
+    <row r="5" spans="1:6" ht="45">
+      <c r="A5" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>459.12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="4" t="s">
-        <v>62</v>
+    <row r="6" spans="1:6" ht="60">
+      <c r="A6" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1194.63</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="4" t="s">
-        <v>65</v>
+    <row r="7" spans="1:6" ht="60">
+      <c r="A7" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>909.6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="4" t="s">
-        <v>68</v>
+    <row r="8" spans="1:6" ht="60">
+      <c r="A8" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>293.43</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="4" t="s">
-        <v>71</v>
+    <row r="9" spans="1:6" ht="60">
+      <c r="A9" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>161.28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="4" t="s">
-        <v>74</v>
+    <row r="10" spans="1:6" ht="60">
+      <c r="A10" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>378.18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="4" t="s">
-        <v>77</v>
+    <row r="11" spans="1:6" ht="60">
+      <c r="A11" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>199.32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="4" t="s">
-        <v>80</v>
+    <row r="12" spans="1:6" ht="45">
+      <c r="A12" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>346.89</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="4" t="s">
-        <v>83</v>
+    <row r="13" spans="1:6" ht="60">
+      <c r="A13" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" t="s">
         <v>16</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>165.39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="4" t="s">
-        <v>86</v>
+    <row r="14" spans="1:6" ht="60">
+      <c r="A14" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" t="s">
         <v>17</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>196.32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="4" t="s">
-        <v>89</v>
+    <row r="15" spans="1:6" ht="60">
+      <c r="A15" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>182.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="4" t="s">
-        <v>92</v>
+    <row r="16" spans="1:6" ht="45">
+      <c r="A16" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" t="s">
         <v>19</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>219.12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30">
-      <c r="A17" s="4" t="s">
-        <v>95</v>
+    <row r="17" spans="1:6" ht="60">
+      <c r="A17" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" t="s">
         <v>20</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>356.37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30">
-      <c r="A18" s="4" t="s">
-        <v>98</v>
+    <row r="18" spans="1:6" ht="60">
+      <c r="A18" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" t="s">
         <v>21</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>200.07</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30">
-      <c r="A19" s="4" t="s">
-        <v>101</v>
+    <row r="19" spans="1:6" ht="60">
+      <c r="A19" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>252.48</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30">
-      <c r="A20" s="4" t="s">
-        <v>104</v>
+    <row r="20" spans="1:6" ht="60">
+      <c r="A20" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" t="s">
         <v>23</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>789.27</v>
       </c>
     </row>
@@ -1826,7 +1982,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15">
@@ -1836,312 +1992,312 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
       <c r="A12" s="1" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="H13" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="H14" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="G15" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="H15" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E16" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="H16" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H17" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="H18" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="I18" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="F19" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="H19" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I19" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="C20" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="H20" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I20" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E21" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="F21" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="H21" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="I21" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_15/expected_aptrans_anon.SAA_Pension_Remit_-_07.20_SPPP__601013_.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_15/expected_aptrans_anon.SAA_Pension_Remit_-_07.20_SPPP__601013_.xlsx
@@ -15,6 +15,7 @@
     <sheet name="~Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="sheet1" sheetId="2" r:id="rId3"/>
     <sheet name="#Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="$Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="117">
   <si>
     <t>SPPP.</t>
   </si>
@@ -182,12 +183,6 @@
     <t>EE</t>
   </si>
   <si>
-    <t>PPS number 9514493B does not exist for Scheme ID 601013
-Forename [Ballyfermot] does not match Payroll member's (refno=0627905) forename [ORLA] or its initial
-Surname [Duagh] does not match Payroll member's (refno=0627905) surname  [NORRIS]  (forename ORLA)
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>3763</t>
   </si>
   <si>
@@ -197,11 +192,6 @@
     <t>Duagh</t>
   </si>
   <si>
-    <t>PPS number 5706494M does not exist for Scheme ID 601013
-Surname [Donaghmede] does not match Payroll member's (refno=0605357) surname  [ULUDAG]  (forename DONAL)
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>4263</t>
   </si>
   <si>
@@ -211,11 +201,6 @@
     <t>Donaghmede</t>
   </si>
   <si>
-    <t>PPS number 2005148P does not exist for Scheme ID 601013
-Member (Payroll=79063) status is PP so name is not validated
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>79063</t>
   </si>
   <si>
@@ -225,11 +210,6 @@
     <t>Murrintown</t>
   </si>
   <si>
-    <t>PPS number 8256689R does not exist for Scheme ID 601013
-Member (Payroll=79357) status is PP so name is not validated
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>79357</t>
   </si>
   <si>
@@ -239,12 +219,6 @@
     <t>Ballyconneely</t>
   </si>
   <si>
-    <t>PPS number 9364472F does not exist for Scheme ID 601013
-Forename [Lisselton] does not match Payroll member's (refno=0007388) forename [PHILIP] or its initial
-Surname [Minane] does not match Payroll member's (refno=0007388) surname  [BARRET]  (forename PHILIP)
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>79458</t>
   </si>
   <si>
@@ -254,12 +228,6 @@
     <t>Minane</t>
   </si>
   <si>
-    <t>PPS number 3351446Y does not exist for Scheme ID 601013
-Forename [Clontarf] does not match Payroll member's (refno=0648581) forename [ERIC] or its initial
-Surname [O'Callaghans] does not match Payroll member's (refno=0648581) surname  [BRDAR]  (forename ERIC)
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>79574</t>
   </si>
   <si>
@@ -269,12 +237,6 @@
     <t>O'Callaghans</t>
   </si>
   <si>
-    <t>PPS number 8751354J does not exist for Scheme ID 601013
-Forename [Barna] does not match Payroll member's (refno=0627885) forename [JOHN] or its initial
-Surname [Cavan] does not match Payroll member's (refno=0627885) surname  [QUINN]  (forename JOHN)
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>80020</t>
   </si>
   <si>
@@ -284,12 +246,6 @@
     <t>Cavan</t>
   </si>
   <si>
-    <t>PPS number 8428714T does not exist for Scheme ID 601013
-Forename [Bannow] does not match Payroll member's (refno=3116689) forename [MARK] or its initial
-Surname [O'Coonagh] does not match Payroll member's (refno=3116689) surname  [GIBLIN]  (forename MARK)
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>80031</t>
   </si>
   <si>
@@ -299,12 +255,6 @@
     <t>O'Coonagh</t>
   </si>
   <si>
-    <t>PPS number 3937317D does not exist for Scheme ID 601013
-Forename [Oranmore] does not match Payroll member's (refno=0607231) forename [GEAROID] or its initial
-Surname [O'Kerrykeel] does not match Payroll member's (refno=0607231) surname  [NORRIS]  (forename GEAROID)
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>80071</t>
   </si>
   <si>
@@ -314,12 +264,6 @@
     <t>O'Kerrykeel</t>
   </si>
   <si>
-    <t>PPS number 4349587J does not exist for Scheme ID 601013
-Forename [Ballinadee] does not match Payroll member's (refno=0605356) forename [NICOLA] or its initial
-Surname [Gorey] does not match Payroll member's (refno=0605356) surname  [BAGGINS] or maiden name [Keane] (forename NICOLA)
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>80092</t>
   </si>
   <si>
@@ -329,11 +273,6 @@
     <t>Gorey</t>
   </si>
   <si>
-    <t>PPS number 2521180F does not exist for Scheme ID 601013
-Surname [Arigna] does not match Payroll member's (refno=6893165) surname  [KELLY]  (forename BARRY)
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>80099</t>
   </si>
   <si>
@@ -343,12 +282,6 @@
     <t>Arigna</t>
   </si>
   <si>
-    <t>PPS number 8949366R does not exist for Scheme ID 601013
-Forename [Ballyvary] does not match Payroll member's (refno=0551465) forename [SEAN] or its initial
-Surname [Newtownforbes] does not match Payroll member's (refno=0551465) surname  [HILL]  (forename SEAN)
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>80166</t>
   </si>
   <si>
@@ -358,12 +291,6 @@
     <t>Newtownforbes</t>
   </si>
   <si>
-    <t>PPS number 3070228T does not exist for Scheme ID 601013
-Forename [Tulrahan] does not match Payroll member's (refno=0586802) forename [PAUL] or its initial
-Surname [Cobh] does not match Payroll member's (refno=0586802) surname  [MORAN]  (forename PAUL)
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>80210</t>
   </si>
   <si>
@@ -373,12 +300,6 @@
     <t>Cobh</t>
   </si>
   <si>
-    <t>PPS number 5824110P does not exist for Scheme ID 601013
-Forename [Dunkineely] does not match Payroll member's (refno=0633896) forename [KEVIN] or its initial
-Surname [McCornamona] does not match Payroll member's (refno=0633896) surname  [SNEYD]  (forename KEVIN)
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>80213</t>
   </si>
   <si>
@@ -388,11 +309,6 @@
     <t>McCornamona</t>
   </si>
   <si>
-    <t>PPS number 3414657N does not exist for Scheme ID 601013
-Surname [O'Knockraha] does not match Payroll member's (refno=0636788) surname  [GAVIN] or maiden name [O'Brien] (forename RACHEL)
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>80214</t>
   </si>
   <si>
@@ -402,12 +318,6 @@
     <t>O'Knockraha</t>
   </si>
   <si>
-    <t>PPS number 5901583E does not exist for Scheme ID 601013
-Forename [Killinaspick] does not match Payroll member's (refno=0568892) forename [CONOR] or its initial
-Surname [Ballinacurra] does not match Payroll member's (refno=0568892) surname  [SULLIVAN]  (forename CONOR)
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>80215</t>
   </si>
   <si>
@@ -417,12 +327,6 @@
     <t>Ballinacurra</t>
   </si>
   <si>
-    <t>PPS number 1994303V does not exist for Scheme ID 601013
-Forename [Bellanagare] does not match Payroll member's (refno=0594753) forename [CONOR] or its initial
-Surname [O'Headford] does not match Payroll member's (refno=0594753) surname  [SULLIVAN]  (forename CONOR)
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>80218</t>
   </si>
   <si>
@@ -432,12 +336,6 @@
     <t>O'Headford</t>
   </si>
   <si>
-    <t>PPS number 4192209D does not exist for Scheme ID 601013
-Forename [Bawnboy] does not match Payroll member's (refno=0611443) forename [FERGAL] or its initial
-Surname [Holycross] does not match Payroll member's (refno=0611443) surname  [OBRIEN]  (forename FERGAL)
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>80234</t>
   </si>
   <si>
@@ -447,12 +345,6 @@
     <t>Holycross</t>
   </si>
   <si>
-    <t>PPS number 7599313R does not exist for Scheme ID 601013
-Forename [Skehana] does not match Payroll member's (refno=0582599) forename [PHILIP] or its initial
-Surname [O'Kilcar] does not match Payroll member's (refno=0582599) surname  [BARRET]  (forename PHILIP)
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>80271</t>
   </si>
   <si>
@@ -474,158 +366,26 @@
     <t>7170.99</t>
   </si>
   <si>
-    <t>Payment Frequency</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>1183236</t>
-  </si>
-  <si>
-    <t>101301</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>21/09/2021</t>
-  </si>
-  <si>
-    <t>3,133.00</t>
-  </si>
-  <si>
-    <t>ILIM 3404413 SPAVC</t>
-  </si>
-  <si>
-    <t>1182890</t>
-  </si>
-  <si>
-    <t>16/09/2021</t>
-  </si>
-  <si>
-    <t>97.03</t>
-  </si>
-  <si>
-    <t>01/09/2021</t>
-  </si>
-  <si>
-    <t>ILIM Sept 2021</t>
-  </si>
-  <si>
-    <t>1182149</t>
-  </si>
-  <si>
-    <t>09/09/2021</t>
-  </si>
-  <si>
-    <t>2,500.00</t>
-  </si>
-  <si>
-    <t>ILIM 0543264</t>
-  </si>
-  <si>
-    <t>83412</t>
-  </si>
-  <si>
-    <t>101300</t>
-  </si>
-  <si>
-    <t>31/10/2001</t>
-  </si>
-  <si>
-    <t>91,421.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp iro L. Stanley </t>
-  </si>
-  <si>
-    <t>68054</t>
-  </si>
-  <si>
-    <t>31/05/2001</t>
-  </si>
-  <si>
-    <t>30/05/2001</t>
-  </si>
-  <si>
-    <t>2,920.40</t>
-  </si>
-  <si>
-    <t>Hevey AVC SP</t>
-  </si>
-  <si>
-    <t>64858</t>
-  </si>
-  <si>
-    <t>30/03/2001</t>
-  </si>
-  <si>
-    <t>37,662.97</t>
-  </si>
-  <si>
-    <t>SPs 04/01</t>
-  </si>
-  <si>
-    <t>18361</t>
-  </si>
-  <si>
-    <t>101302</t>
-  </si>
-  <si>
-    <t>01/10/1999</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>620.70</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>18360</t>
-  </si>
-  <si>
-    <t>01/09/1999</t>
-  </si>
-  <si>
-    <t>18359</t>
-  </si>
-  <si>
-    <t>01/08/1999</t>
+    <t>1_Errors_found</t>
+  </si>
+  <si>
+    <t>Error Type</t>
+  </si>
+  <si>
+    <t>Error Description</t>
+  </si>
+  <si>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,25 +408,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -725,21 +490,23 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1550,10 +1317,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="125.5"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -1573,18 +1340,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="4"/>
+      <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -1593,18 +1358,16 @@
         <v>430.26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -1613,18 +1376,16 @@
         <v>240.3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
         <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>62</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -1633,18 +1394,16 @@
         <v>196.71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45">
-      <c r="A5" s="5" t="s">
-        <v>63</v>
-      </c>
+    <row r="5" spans="1:6" ht="14.25">
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1653,18 +1412,16 @@
         <v>459.12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="60">
-      <c r="A6" s="5" t="s">
-        <v>67</v>
-      </c>
+    <row r="6" spans="1:6" ht="14.25">
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -1673,18 +1430,16 @@
         <v>1194.63</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="60">
-      <c r="A7" s="5" t="s">
-        <v>71</v>
-      </c>
+    <row r="7" spans="1:6" ht="14.25">
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1693,18 +1448,16 @@
         <v>909.6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="60">
-      <c r="A8" s="5" t="s">
-        <v>75</v>
-      </c>
+    <row r="8" spans="1:6" ht="14.25">
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -1713,18 +1466,16 @@
         <v>293.43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="60">
-      <c r="A9" s="5" t="s">
-        <v>79</v>
-      </c>
+    <row r="9" spans="1:6" ht="14.25">
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1733,18 +1484,16 @@
         <v>161.28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60">
-      <c r="A10" s="5" t="s">
-        <v>83</v>
-      </c>
+    <row r="10" spans="1:6" ht="14.25">
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1753,18 +1502,16 @@
         <v>378.18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60">
-      <c r="A11" s="5" t="s">
-        <v>87</v>
-      </c>
+    <row r="11" spans="1:6" ht="14.25">
+      <c r="A11" s="5"/>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1773,18 +1520,16 @@
         <v>199.32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45">
-      <c r="A12" s="5" t="s">
-        <v>91</v>
-      </c>
+    <row r="12" spans="1:6" ht="14.25">
+      <c r="A12" s="5"/>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -1793,18 +1538,16 @@
         <v>346.89</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="60">
-      <c r="A13" s="5" t="s">
-        <v>95</v>
-      </c>
+    <row r="13" spans="1:6" ht="14.25">
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -1813,18 +1556,16 @@
         <v>165.39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="60">
-      <c r="A14" s="5" t="s">
-        <v>99</v>
-      </c>
+    <row r="14" spans="1:6" ht="14.25">
+      <c r="A14" s="5"/>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
@@ -1833,18 +1574,16 @@
         <v>196.32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="60">
-      <c r="A15" s="5" t="s">
-        <v>103</v>
-      </c>
+    <row r="15" spans="1:6" ht="14.25">
+      <c r="A15" s="5"/>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -1853,18 +1592,16 @@
         <v>182.25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45">
-      <c r="A16" s="5" t="s">
-        <v>107</v>
-      </c>
+    <row r="16" spans="1:6" ht="14.25">
+      <c r="A16" s="5"/>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
@@ -1873,18 +1610,16 @@
         <v>219.12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="60">
-      <c r="A17" s="5" t="s">
-        <v>111</v>
-      </c>
+    <row r="17" spans="1:6" ht="14.25">
+      <c r="A17" s="5"/>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
@@ -1893,18 +1628,16 @@
         <v>356.37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="60">
-      <c r="A18" s="5" t="s">
-        <v>115</v>
-      </c>
+    <row r="18" spans="1:6" ht="14.25">
+      <c r="A18" s="5"/>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
@@ -1913,18 +1646,16 @@
         <v>200.07</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="60">
-      <c r="A19" s="5" t="s">
-        <v>119</v>
-      </c>
+    <row r="19" spans="1:6" ht="14.25">
+      <c r="A19" s="5"/>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
@@ -1933,18 +1664,16 @@
         <v>252.48</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="60">
-      <c r="A20" s="5" t="s">
-        <v>123</v>
-      </c>
+    <row r="20" spans="1:6" ht="14.25">
+      <c r="A20" s="5"/>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
         <v>23</v>
@@ -1961,24 +1690,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.75"/>
-    <col min="2" max="2" width="14.125"/>
-    <col min="3" max="3" width="8.25"/>
-    <col min="4" max="4" width="15.75"/>
-    <col min="5" max="5" width="13.25"/>
-    <col min="6" max="6" width="12.625"/>
-    <col min="7" max="7" width="15.75"/>
-    <col min="8" max="8" width="10.5"/>
-    <col min="9" max="9" width="19.125"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15">
       <c r="A1" t="s">
@@ -1992,312 +1710,61 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" t="s">
-        <v>145</v>
-      </c>
-      <c r="H13" t="s">
-        <v>144</v>
-      </c>
-      <c r="I13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" t="s">
-        <v>149</v>
-      </c>
-      <c r="H14" t="s">
-        <v>150</v>
-      </c>
-      <c r="I14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" t="s">
-        <v>153</v>
-      </c>
-      <c r="G15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H15" t="s">
-        <v>153</v>
-      </c>
-      <c r="I15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F16" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" t="s">
-        <v>159</v>
-      </c>
-      <c r="H16" t="s">
-        <v>158</v>
-      </c>
-      <c r="I16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" t="s">
-        <v>143</v>
-      </c>
-      <c r="E17" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" t="s">
-        <v>163</v>
-      </c>
-      <c r="G17" t="s">
-        <v>164</v>
-      </c>
-      <c r="H17" t="s">
-        <v>162</v>
-      </c>
-      <c r="I17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E18" t="s">
-        <v>167</v>
-      </c>
-      <c r="F18" t="s">
-        <v>167</v>
-      </c>
-      <c r="G18" t="s">
-        <v>168</v>
-      </c>
-      <c r="H18" t="s">
-        <v>167</v>
-      </c>
-      <c r="I18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15">
-      <c r="A19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D19" t="s">
-        <v>143</v>
-      </c>
-      <c r="E19" t="s">
-        <v>172</v>
-      </c>
-      <c r="F19" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" t="s">
-        <v>174</v>
-      </c>
-      <c r="H19" t="s">
-        <v>173</v>
-      </c>
-      <c r="I19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15">
-      <c r="A20" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" t="s">
-        <v>143</v>
-      </c>
-      <c r="E20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F20" t="s">
-        <v>173</v>
-      </c>
-      <c r="G20" t="s">
-        <v>174</v>
-      </c>
-      <c r="H20" t="s">
-        <v>173</v>
-      </c>
-      <c r="I20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15">
-      <c r="A21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" t="s">
-        <v>179</v>
-      </c>
-      <c r="F21" t="s">
-        <v>173</v>
-      </c>
-      <c r="G21" t="s">
-        <v>174</v>
-      </c>
-      <c r="H21" t="s">
-        <v>173</v>
-      </c>
-      <c r="I21" t="s">
-        <v>175</v>
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
